--- a/biology/Biochimie/Acide_3-phosphoglycérique/Acide_3-phosphoglycérique.xlsx
+++ b/biology/Biochimie/Acide_3-phosphoglycérique/Acide_3-phosphoglycérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_3-phosphoglyc%C3%A9rique</t>
+          <t>Acide_3-phosphoglycérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’acide 3-phosphoglycérique — ou 3-phosphoglycérate sous forme déprotonée, abrégée en 3PG — est un composé organique important en biochimie. Seul l'énantiomère 3-phospho-D-glycérate est biologiquement actif. Il intervient selon les cas comme métabolite de la glycolyse en relation avec la chaîne respiratoire ou comme intermédiaire du cycle de Calvin en relation avec la photosynthèse.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_3-phosphoglyc%C3%A9rique</t>
+          <t>Acide_3-phosphoglycérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,9 @@
           <t>Rôle dans la glycolyse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Biosynthèse
-Le groupe phosphate à haut potentiel de transfert du 1,3-bisphospho-D-glycérate (1,3-DPG) produit au cours de la glycolyse permet de phosphoryler une molécule d'ADP en ATP pour former le 3-phospho-D-glycérate (3PG) sous l'action de la phosphoglycérate kinase ; c'est la première étape de la glycolyse où de l'énergie est récupérée sous forme réutilisable, emmagasinée dans l'ATP.
-Dégradation
-Le 3-phospho-D-glycérate est isomérisé en 2-phospho-D-glycérate (2PG) par la phosphoglycérate mutase.
-</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acide_3-phosphoglyc%C3%A9rique</t>
+          <t>Acide_3-phosphoglycérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +549,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Rôle dans le cycle de Calvin</t>
+          <t>Rôle dans la glycolyse</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le dioxyde de carbone CO2 est fixé sur le D-ribulose-1,5-bisphosphate par la ribulose-1,5-bisphosphate carboxylase/oxygénase (Rubisco) pour donner du 3-céto-2-carboxyarabinitol-1,5-bisphosphate, composé très instable qui se dissocie immédiatement en deux molécules de 3-phospho-D-glycérate. Celui-ci est ensuite phosphorylé par la phosphoglycérate kinase à l'aide d'une molécule d'ATP pour donner du 1,3-bisphospho-D-glycérate.
+          <t>Biosynthèse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupe phosphate à haut potentiel de transfert du 1,3-bisphospho-D-glycérate (1,3-DPG) produit au cours de la glycolyse permet de phosphoryler une molécule d'ADP en ATP pour former le 3-phospho-D-glycérate (3PG) sous l'action de la phosphoglycérate kinase ; c'est la première étape de la glycolyse où de l'énergie est récupérée sous forme réutilisable, emmagasinée dans l'ATP.
 </t>
         </is>
       </c>
@@ -560,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acide_3-phosphoglyc%C3%A9rique</t>
+          <t>Acide_3-phosphoglycérique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +586,82 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Rôle dans la glycolyse</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dégradation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 3-phospho-D-glycérate est isomérisé en 2-phospho-D-glycérate (2PG) par la phosphoglycérate mutase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acide_3-phosphoglycérique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_3-phosphoglyc%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Rôle dans le cycle de Calvin</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dioxyde de carbone CO2 est fixé sur le D-ribulose-1,5-bisphosphate par la ribulose-1,5-bisphosphate carboxylase/oxygénase (Rubisco) pour donner du 3-céto-2-carboxyarabinitol-1,5-bisphosphate, composé très instable qui se dissocie immédiatement en deux molécules de 3-phospho-D-glycérate. Celui-ci est ensuite phosphorylé par la phosphoglycérate kinase à l'aide d'une molécule d'ATP pour donner du 1,3-bisphospho-D-glycérate.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acide_3-phosphoglycérique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_3-phosphoglyc%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Rôle dans la biosynthèse des acides aminés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 3-phospho-D-glycérate est également précurseur de la sérine, elle-même précurseur de la cystéine et de la glycine à travers le cycle de l'homocystéine.
 </t>
